--- a/excelTEST.xlsx
+++ b/excelTEST.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>Posicion</t>
   </si>
@@ -29,22 +29,64 @@
     <t>Precio Sugerido</t>
   </si>
   <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>william.john@gmail.com</t>
-  </si>
-  <si>
-    <t>700000.00</t>
-  </si>
-  <si>
-    <t>MathewAAA Parker</t>
-  </si>
-  <si>
-    <t>parker.mathew@gmail.com</t>
-  </si>
-  <si>
-    <t>200000.00</t>
+    <t>Bodega</t>
+  </si>
+  <si>
+    <t>Region</t>
+  </si>
+  <si>
+    <t>Pais</t>
+  </si>
+  <si>
+    <t>Varietal</t>
+  </si>
+  <si>
+    <t>Gran Vino Mendoza</t>
+  </si>
+  <si>
+    <t>6.7</t>
+  </si>
+  <si>
+    <t>3500.0</t>
+  </si>
+  <si>
+    <t>Bodega Lopez</t>
+  </si>
+  <si>
+    <t>Zona Centro-Oeste</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Cabernet</t>
+  </si>
+  <si>
+    <t>Gran Reserva 2015</t>
+  </si>
+  <si>
+    <t>7.25</t>
+  </si>
+  <si>
+    <t>2500.0</t>
+  </si>
+  <si>
+    <t>Malbec</t>
+  </si>
+  <si>
+    <t>Vino Regional 2019</t>
+  </si>
+  <si>
+    <t>9.3</t>
+  </si>
+  <si>
+    <t>2000.0</t>
+  </si>
+  <si>
+    <t>Bodega Regional</t>
+  </si>
+  <si>
+    <t>Zona Noreste</t>
   </si>
 </sst>
 </file>
@@ -89,14 +131,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="23.4375" customWidth="true"/>
+    <col min="1" max="1" width="15.625" customWidth="true"/>
     <col min="2" max="2" width="15.625" customWidth="true"/>
+    <col min="3" max="3" width="15.625" customWidth="true"/>
+    <col min="4" max="4" width="15.625" customWidth="true"/>
+    <col min="5" max="5" width="15.625" customWidth="true"/>
+    <col min="6" max="6" width="15.625" customWidth="true"/>
+    <col min="7" max="7" width="15.625" customWidth="true"/>
+    <col min="8" max="8" width="15.625" customWidth="true"/>
+    <col min="9" max="9" width="15.625" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -115,22 +164,46 @@
       <c r="E1" t="s" s="0">
         <v>4</v>
       </c>
+      <c r="F1" t="s" s="0">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s" s="0">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s" s="0">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s" s="0">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n" s="0">
         <v>1.0</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C2" t="n" s="0">
-        <v>9999999.0</v>
+        <v>7.0</v>
       </c>
       <c r="D2" t="s" s="0">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s" s="0">
-        <v>7</v>
+        <v>11</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G2" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s" s="0">
+        <v>15</v>
       </c>
     </row>
     <row r="3">
@@ -138,16 +211,28 @@
         <v>2.0</v>
       </c>
       <c r="B3" t="s" s="0">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C3" t="n" s="0">
-        <v>2.2222222E7</v>
+        <v>7.0</v>
       </c>
       <c r="D3" t="s" s="0">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>10</v>
+        <v>18</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G3" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s" s="0">
+        <v>19</v>
       </c>
     </row>
     <row r="4">
@@ -155,16 +240,28 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C4" t="n" s="0">
-        <v>9999999.0</v>
+        <v>7.0</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="E4" t="s" s="0">
-        <v>7</v>
+        <v>22</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>23</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>24</v>
+      </c>
+      <c r="H4" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s" s="0">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/excelTEST.xlsx
+++ b/excelTEST.xlsx
@@ -137,15 +137,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="15.625" customWidth="true"/>
-    <col min="2" max="2" width="15.625" customWidth="true"/>
-    <col min="3" max="3" width="15.625" customWidth="true"/>
-    <col min="4" max="4" width="15.625" customWidth="true"/>
-    <col min="5" max="5" width="15.625" customWidth="true"/>
-    <col min="6" max="6" width="15.625" customWidth="true"/>
-    <col min="7" max="7" width="15.625" customWidth="true"/>
-    <col min="8" max="8" width="15.625" customWidth="true"/>
-    <col min="9" max="9" width="15.625" customWidth="true"/>
+    <col min="1" max="1" width="19.53125" customWidth="true"/>
+    <col min="2" max="2" width="19.53125" customWidth="true"/>
+    <col min="3" max="3" width="19.53125" customWidth="true"/>
+    <col min="4" max="4" width="19.53125" customWidth="true"/>
+    <col min="5" max="5" width="19.53125" customWidth="true"/>
+    <col min="6" max="6" width="19.53125" customWidth="true"/>
+    <col min="7" max="7" width="19.53125" customWidth="true"/>
+    <col min="8" max="8" width="19.53125" customWidth="true"/>
+    <col min="9" max="9" width="19.53125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">

--- a/excelTEST.xlsx
+++ b/excelTEST.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="39">
   <si>
     <t>Posicion</t>
   </si>
@@ -41,52 +41,94 @@
     <t>Varietal</t>
   </si>
   <si>
+    <t>Gran Reserva 2015</t>
+  </si>
+  <si>
+    <t>6.7</t>
+  </si>
+  <si>
+    <t>2500.0</t>
+  </si>
+  <si>
+    <t>Bodega Lopez</t>
+  </si>
+  <si>
+    <t>Zona Centro-Oeste</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Malbec</t>
+  </si>
+  <si>
     <t>Gran Vino Mendoza</t>
   </si>
   <si>
-    <t>6.7</t>
-  </si>
-  <si>
     <t>3500.0</t>
   </si>
   <si>
-    <t>Bodega Lopez</t>
-  </si>
-  <si>
-    <t>Zona Centro-Oeste</t>
-  </si>
-  <si>
-    <t>Argentina</t>
-  </si>
-  <si>
     <t>Cabernet</t>
   </si>
   <si>
-    <t>Gran Reserva 2015</t>
-  </si>
-  <si>
-    <t>7.25</t>
-  </si>
-  <si>
-    <t>2500.0</t>
-  </si>
-  <si>
-    <t>Malbec</t>
-  </si>
-  <si>
-    <t>Vino Regional 2019</t>
-  </si>
-  <si>
-    <t>9.3</t>
-  </si>
-  <si>
-    <t>2000.0</t>
+    <t>San Juan Reserva</t>
+  </si>
+  <si>
+    <t>7.1</t>
+  </si>
+  <si>
+    <t>3000.0</t>
+  </si>
+  <si>
+    <t>Vino El Cóndor</t>
+  </si>
+  <si>
+    <t>5500.0</t>
+  </si>
+  <si>
+    <t>Vino de La Rioja</t>
+  </si>
+  <si>
+    <t>9.0</t>
+  </si>
+  <si>
+    <t>6000.0</t>
   </si>
   <si>
     <t>Bodega Regional</t>
   </si>
   <si>
     <t>Zona Noreste</t>
+  </si>
+  <si>
+    <t>Vino Selección</t>
+  </si>
+  <si>
+    <t>4000.0</t>
+  </si>
+  <si>
+    <t>Vino Nacional</t>
+  </si>
+  <si>
+    <t>9.1</t>
+  </si>
+  <si>
+    <t>1500.0</t>
+  </si>
+  <si>
+    <t>Merlot Clásico</t>
+  </si>
+  <si>
+    <t>1300.0</t>
+  </si>
+  <si>
+    <t>Vino Numero 8</t>
+  </si>
+  <si>
+    <t>Tinto Gaucho</t>
+  </si>
+  <si>
+    <t>1700.0</t>
   </si>
 </sst>
 </file>
@@ -131,7 +173,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -217,10 +259,10 @@
         <v>7.0</v>
       </c>
       <c r="D3" t="s" s="0">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s" s="0">
         <v>17</v>
-      </c>
-      <c r="E3" t="s" s="0">
-        <v>18</v>
       </c>
       <c r="F3" t="s" s="0">
         <v>12</v>
@@ -232,7 +274,7 @@
         <v>14</v>
       </c>
       <c r="I3" t="s" s="0">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4">
@@ -240,28 +282,231 @@
         <v>3.0</v>
       </c>
       <c r="B4" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="C4" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="D4" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="C4" t="n" s="0">
-        <v>7.0</v>
-      </c>
-      <c r="D4" t="s" s="0">
+      <c r="E4" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="E4" t="s" s="0">
+      <c r="F4" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="I4" t="s" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n" s="0">
+        <v>4.0</v>
+      </c>
+      <c r="B5" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="F4" t="s" s="0">
+      <c r="C5" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="G4" t="s" s="0">
+      <c r="F5" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G5" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n" s="0">
+        <v>5.0</v>
+      </c>
+      <c r="B6" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="H4" t="s" s="0">
-        <v>14</v>
-      </c>
-      <c r="I4" t="s" s="0">
-        <v>19</v>
+      <c r="C6" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="D6" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="H6" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n" s="0">
+        <v>6.0</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C7" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="D7" t="s" s="0">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="F7" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="G7" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="H7" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="B8" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="C8" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="D8" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H8" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="I8" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n" s="0">
+        <v>8.0</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="C9" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="F9" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="G9" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="H9" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s" s="0">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n" s="0">
+        <v>9.0</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="C10" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="D10" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="E10" t="s" s="0">
+        <v>33</v>
+      </c>
+      <c r="F10" t="s" s="0">
+        <v>12</v>
+      </c>
+      <c r="G10" t="s" s="0">
+        <v>13</v>
+      </c>
+      <c r="H10" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s" s="0">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n" s="0">
+        <v>10.0</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="C11" t="n" s="0">
+        <v>7.0</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="F11" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="G11" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="H11" t="s" s="0">
+        <v>14</v>
+      </c>
+      <c r="I11" t="s" s="0">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
